--- a/code/PhaseI/data/iccps/Feeder11.xlsx
+++ b/code/PhaseI/data/iccps/Feeder11.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Time</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Consumer_11_4</t>
+  </si>
+  <si>
+    <t>Net_Consumption_11</t>
   </si>
 </sst>
 </file>
@@ -352,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F3" sqref="F3:F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,7 +367,7 @@
     <col min="2" max="5" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,8 +383,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -397,8 +403,12 @@
       <c r="E2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>SUM(B2:E2)</f>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -414,8 +424,12 @@
       <c r="E3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">SUM(B3:E3)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -431,8 +445,12 @@
       <c r="E4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.125E-2</v>
       </c>
@@ -448,8 +466,12 @@
       <c r="E5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -465,8 +487,12 @@
       <c r="E6">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -482,8 +508,12 @@
       <c r="E7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6.25E-2</v>
       </c>
@@ -499,8 +529,12 @@
       <c r="E8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -516,8 +550,12 @@
       <c r="E9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -533,8 +571,12 @@
       <c r="E10">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9.375E-2</v>
       </c>
@@ -550,8 +592,12 @@
       <c r="E11">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -567,8 +613,12 @@
       <c r="E12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.11458333333333333</v>
       </c>
@@ -584,8 +634,12 @@
       <c r="E13">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.125</v>
       </c>
@@ -601,8 +655,12 @@
       <c r="E14">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.13541666666666666</v>
       </c>
@@ -618,8 +676,12 @@
       <c r="E15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -635,8 +697,12 @@
       <c r="E16">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.15625</v>
       </c>
@@ -652,8 +718,12 @@
       <c r="E17">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -669,8 +739,12 @@
       <c r="E18">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.17708333333333334</v>
       </c>
@@ -686,8 +760,12 @@
       <c r="E19">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.1875</v>
       </c>
@@ -703,8 +781,12 @@
       <c r="E20">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.19791666666666666</v>
       </c>
@@ -720,8 +802,12 @@
       <c r="E21">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -737,8 +823,12 @@
       <c r="E22">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.21875</v>
       </c>
@@ -754,8 +844,12 @@
       <c r="E23">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -771,8 +865,12 @@
       <c r="E24">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.23958333333333334</v>
       </c>
@@ -788,8 +886,12 @@
       <c r="E25">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.25</v>
       </c>
@@ -805,8 +907,12 @@
       <c r="E26">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.26041666666666669</v>
       </c>
@@ -822,8 +928,12 @@
       <c r="E27">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1.5000000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -839,8 +949,12 @@
       <c r="E28">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.28125</v>
       </c>
@@ -856,8 +970,12 @@
       <c r="E29">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -873,8 +991,12 @@
       <c r="E30">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.30208333333333331</v>
       </c>
@@ -890,8 +1012,12 @@
       <c r="E31">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.3125</v>
       </c>
@@ -907,8 +1033,12 @@
       <c r="E32">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.32291666666666669</v>
       </c>
@@ -924,8 +1054,12 @@
       <c r="E33">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -941,8 +1075,12 @@
       <c r="E34">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.34375</v>
       </c>
@@ -958,8 +1096,12 @@
       <c r="E35">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -975,8 +1117,12 @@
       <c r="E36">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.36458333333333331</v>
       </c>
@@ -992,8 +1138,12 @@
       <c r="E37">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.375</v>
       </c>
@@ -1009,8 +1159,12 @@
       <c r="E38">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.38541666666666669</v>
       </c>
@@ -1026,8 +1180,12 @@
       <c r="E39">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -1043,8 +1201,12 @@
       <c r="E40">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.40625</v>
       </c>
@@ -1060,8 +1222,12 @@
       <c r="E41">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -1077,8 +1243,12 @@
       <c r="E42">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.42708333333333331</v>
       </c>
@@ -1094,8 +1264,12 @@
       <c r="E43">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.4375</v>
       </c>
@@ -1111,8 +1285,12 @@
       <c r="E44">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.44791666666666669</v>
       </c>
@@ -1128,8 +1306,12 @@
       <c r="E45">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -1145,8 +1327,12 @@
       <c r="E46">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.46875</v>
       </c>
@@ -1162,8 +1348,12 @@
       <c r="E47">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -1179,8 +1369,12 @@
       <c r="E48">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -1196,8 +1390,12 @@
       <c r="E49">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.5</v>
       </c>
@@ -1213,8 +1411,12 @@
       <c r="E50">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0.51041666666666663</v>
       </c>
@@ -1230,8 +1432,12 @@
       <c r="E51">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -1247,8 +1453,12 @@
       <c r="E52">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0.53125</v>
       </c>
@@ -1264,8 +1474,12 @@
       <c r="E53">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -1281,8 +1495,12 @@
       <c r="E54">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.55208333333333337</v>
       </c>
@@ -1298,8 +1516,12 @@
       <c r="E55">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0.5625</v>
       </c>
@@ -1315,8 +1537,12 @@
       <c r="E56">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.57291666666666663</v>
       </c>
@@ -1332,8 +1558,12 @@
       <c r="E57">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -1349,8 +1579,12 @@
       <c r="E58">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0.59375</v>
       </c>
@@ -1366,8 +1600,12 @@
       <c r="E59">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -1383,8 +1621,12 @@
       <c r="E60">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0.61458333333333337</v>
       </c>
@@ -1400,8 +1642,12 @@
       <c r="E61">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0.625</v>
       </c>
@@ -1417,8 +1663,12 @@
       <c r="E62">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0.63541666666666663</v>
       </c>
@@ -1434,8 +1684,12 @@
       <c r="E63">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -1451,8 +1705,12 @@
       <c r="E64">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.65625</v>
       </c>
@@ -1468,8 +1726,12 @@
       <c r="E65">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -1485,8 +1747,12 @@
       <c r="E66">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.67708333333333337</v>
       </c>
@@ -1502,8 +1768,12 @@
       <c r="E67">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" ref="F67:F97" si="1">SUM(B67:E67)</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0.6875</v>
       </c>
@@ -1519,8 +1789,12 @@
       <c r="E68">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -1536,8 +1810,12 @@
       <c r="E69">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -1553,8 +1831,12 @@
       <c r="E70">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.71875</v>
       </c>
@@ -1570,8 +1852,12 @@
       <c r="E71">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -1587,8 +1873,12 @@
       <c r="E72">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0.73958333333333337</v>
       </c>
@@ -1604,8 +1894,12 @@
       <c r="E73">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0.75</v>
       </c>
@@ -1621,8 +1915,12 @@
       <c r="E74">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0.76041666666666663</v>
       </c>
@@ -1638,8 +1936,12 @@
       <c r="E75">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -1655,8 +1957,12 @@
       <c r="E76">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0.78125</v>
       </c>
@@ -1672,8 +1978,12 @@
       <c r="E77">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -1689,8 +1999,12 @@
       <c r="E78">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0.80208333333333337</v>
       </c>
@@ -1706,8 +2020,12 @@
       <c r="E79">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0.8125</v>
       </c>
@@ -1723,8 +2041,12 @@
       <c r="E80">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -1740,8 +2062,12 @@
       <c r="E81">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -1757,8 +2083,12 @@
       <c r="E82">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0.84375</v>
       </c>
@@ -1774,8 +2104,12 @@
       <c r="E83">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -1791,8 +2125,12 @@
       <c r="E84">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.86458333333333337</v>
       </c>
@@ -1808,8 +2146,12 @@
       <c r="E85">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0.875</v>
       </c>
@@ -1825,8 +2167,12 @@
       <c r="E86">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0.88541666666666663</v>
       </c>
@@ -1842,8 +2188,12 @@
       <c r="E87">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -1859,8 +2209,12 @@
       <c r="E88">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0.90625</v>
       </c>
@@ -1876,8 +2230,12 @@
       <c r="E89">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -1893,8 +2251,12 @@
       <c r="E90">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0.92708333333333337</v>
       </c>
@@ -1910,8 +2272,12 @@
       <c r="E91">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0.9375</v>
       </c>
@@ -1927,8 +2293,12 @@
       <c r="E92">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0.94791666666666663</v>
       </c>
@@ -1944,8 +2314,12 @@
       <c r="E93">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -1961,8 +2335,12 @@
       <c r="E94">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0.96875</v>
       </c>
@@ -1978,8 +2356,12 @@
       <c r="E95">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -1995,8 +2377,12 @@
       <c r="E96">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0.98958333333333337</v>
       </c>
@@ -2011,6 +2397,10 @@
       </c>
       <c r="E97">
         <v>0.4</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
